--- a/cal/Sensorboard_SN0.xlsx
+++ b/cal/Sensorboard_SN0.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Voltage" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="RF Forward" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="RF Reverse" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="USB" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t xml:space="preserve">Ground Truth</t>
   </si>
@@ -263,8 +262,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,7 +397,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>4842</v>
+        <v>3842</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>3839</v>
@@ -518,7 +517,7 @@
         <v>8.999</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>9409</v>
+        <v>8409</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>8442</v>
@@ -927,8 +926,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -991,7 +990,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D:D C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,52 +1043,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>